--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>891.7569358808403</v>
+        <v>830.361569243868</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.17693588083531</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.752483473055587</v>
+        <v>8.161660554742911</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>445.850000000005</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.73</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>14.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.81550631967969</v>
+        <v>18.23758910225314</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.37739353073907</v>
+        <v>24.57220118279982</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>21.42208278257345</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.80519234793928</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1066,6 +1066,76 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000067</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>159.1200000000015</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>158.6950000000015</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>154.3250000000015</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>163.3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>160.9100000000014</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.06</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.715</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>229.35</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>238.9250000000013</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>240.6</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>250.7050000000012</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>245.3</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>229.35</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>238.9250000000013</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>240.6</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7050000000012</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>245.3</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29.35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>38.92500000000126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>50.70500000000123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>45.3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1666,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1688,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1955,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2065,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2073,10 +2143,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2084,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2098,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2109,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2120,9 +2190,31 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
